--- a/biology/Médecine/Philippe_Carrer/Philippe_Carrer.xlsx
+++ b/biology/Médecine/Philippe_Carrer/Philippe_Carrer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Carrer est médecin, psychiatre et spécialiste de la civilisation bretonne, né en 1928 à Rennes et mort le 11 mars 2023 à Rédené. Il s'intéresse plus particulièrement à l'ethnopsychiatrie appliquée à la Bretagne. Il s'intéresse également à l'histoire de la Bretagne.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il commence sa carrière de médecin psychiatre à Plouguernével. Il exerce ensuite à Rouen avant de créer en 1974 le service de psychiatrie de l'hôpital de Quimperlé[1].
-Dans les années 1980, il préside la "Société bretonne d'ethnopsychiatrie", qu'il a fondée. À la même époque, il est également responsable de la section "anthropologie médicale" de l'Institut culturel de Bretagne[2].
-Il meurt le 11 mars 2023 à Rédené (Finistère)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il commence sa carrière de médecin psychiatre à Plouguernével. Il exerce ensuite à Rouen avant de créer en 1974 le service de psychiatrie de l'hôpital de Quimperlé.
+Dans les années 1980, il préside la "Société bretonne d'ethnopsychiatrie", qu'il a fondée. À la même époque, il est également responsable de la section "anthropologie médicale" de l'Institut culturel de Bretagne.
+Il meurt le 11 mars 2023 à Rédené (Finistère).
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le matriarcat psychologique des Bretons, Payot, 1983
-Œdipe en Bretagne : essai d'ethnopsychiatrie, Toulouse, Privat, 1986[3].
-Permanence de la langue bretonne ; de la linguistique à la psychanalyse. Institut culturel de Bretagne, 1986[3].
-L'enfant breton et ses images parentales, Institut culturel de Bretagne, 1987[3]
+Œdipe en Bretagne : essai d'ethnopsychiatrie, Toulouse, Privat, 1986.
+Permanence de la langue bretonne ; de la linguistique à la psychanalyse. Institut culturel de Bretagne, 1986.
+L'enfant breton et ses images parentales, Institut culturel de Bretagne, 1987
 Louis de Plélo, une folle aventure au siècle des Lumières, Coop Breizh, 1997
 L'envers du décor : essais d'ethnopsychiatrie en Bretagne et autres terres celtes, Coop Breizh, 1999
 Ermengarde d'Anjou, l'autre duchesse de Bretagne, Coop Breizh, 2003
@@ -557,7 +573,7 @@
 Ethnopsychiatrie en Bretagne, nouvelles études, Coop Breizh, 2007 ; réédition semi-poche Coop Breizh, 2011
 Kemperle Quimperlé, 3 emblèmes pour 3 rivières, Yoran Embanner, 2010
 Folies et déraisons en Bretagne d'antan, Coop Breizh, 2012
-Pour l'amour d'Anne Kervour, Skol Vreizh, 2021  (ISBN 978-2-36758-111-8)[4]</t>
+Pour l'amour d'Anne Kervour, Skol Vreizh, 2021  (ISBN 978-2-36758-111-8)</t>
         </is>
       </c>
     </row>
